--- a/similarities/split_global/harmonic_similarity_timestamps_249.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_249.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E/4']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'G#:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:48.277000', '0:00:54.481000')]</t>
+          <t>('0:00:00.380000', '0:00:03.700000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:08.480000', '0:00:10.200000')]</t>
+          <t>('0:00:28.800000', '0:00:36.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=48.277']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=8.48']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=28.8</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['G/5', 'C/9', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:42.940000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:55.230000', '0:01:07.670000')]</t>
+          <t>('0:00:00.727609', '0:00:08.204625')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:00.220000', '0:00:06.800000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:06.900000', '0:00:15.820000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=6.9</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+          <t>('0:01:41.060000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:01:08.080000', '0:01:27.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E'], ['F#', 'B', 'E']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
+          <t>['E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:30.654941', '0:00:38.514896'), ('0:00:38.514896', '0:00:45.713082')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000'), ('0:03:07.440000', '0:03:10.020000')]</t>
+          <t>('0:01:01.683832', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=38.514896']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=187.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:7', 'D:7']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F:7']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:23.810000', '0:00:28.450000')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.840000', '0:00:27.650000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=23.81']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=21.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>isophonics_167</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['G/5', 'C/9', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:57.777619', '0:01:01.864331')]</t>
+          <t>('0:00:00.727609', '0:00:10.723990')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:02:18.020000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=57.777619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:7', 'C', 'G:7']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['G:7', 'C:min', 'F:min', 'C:min', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:26.160000', '0:00:39.060000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:46.580000', '0:00:48.520000'), ('0:00:32.400000', '0:00:38.760000')]</t>
+          <t>('0:00:12.394648', '0:00:22.321179')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=26.16</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=46.58', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=12.394648</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:21.213174', '0:00:28.074671')]</t>
+          <t>('0:00:09.240000', '0:00:16.260000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.840000')]</t>
+          <t>('0:00:13.420000', '0:00:19.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=21.213174']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:31.600000', '0:00:33.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:45.720000', '0:00:49.900000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Bb:7']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A'], ['E', 'B', 'E']]</t>
+          <t>['C/G', 'G:7', 'C', 'D:7/C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:17.840000', '0:00:26.980000'), ('0:00:00.740000', '0:00:21.500000')]</t>
+          <t>('0:01:23.460000', '0:01:31.460000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:20.410362', '0:00:24.856984'), ('0:00:12.921927', '0:00:21.908049')]</t>
+          <t>('0:04:22.920000', '0:04:32')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_125</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['A:min', 'D', 'D/2']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#:7/A#', 'G#/C']]</t>
+          <t>['G:min/A#', 'C:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:01:16.299013', '0:01:18.748718')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:51.040000', '0:00:52.760000')]</t>
+          <t>('0:00:09.640000', '0:00:11.780000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=76.299013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=51.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=9.64</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:32.100000')]</t>
+          <t>('0:00:28.921995', '0:00:33.101587')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>isophonics_127</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:16.630000', '0:01:27.460000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+          <t>('0:00:01.014823', '0:00:12.241493')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-127#t=1.014823</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
